--- a/model_comparison.xlsx
+++ b/model_comparison.xlsx
@@ -1,26 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://husteduvn-my.sharepoint.com/personal/huy_tq226109_sis_hust_edu_vn/Documents/TÀI LIỆU HỌC TẬP/ISE LAB/NLP/GIT Bug Localization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://husteduvn-my.sharepoint.com/personal/huy_tq226109_sis_hust_edu_vn/Documents/TÀI LIỆU HỌC TẬP/ISE LAB/NLP/GIT Bug Localization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="11_2B59D2BFD3005908033A291159F39832601DE224" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5375E7E7-2A77-7A46-9AC1-AAAEC9F6A733}"/>
+  <xr:revisionPtr revIDLastSave="487" documentId="11_2B59D2BFD3005908033A291159F39832601DE224" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD97A61B-74BB-024B-BC7E-013FEB74A565}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1515" yWindow="2498" windowWidth="16200" windowHeight="9982" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Project</t>
   </si>
@@ -28,6 +44,18 @@
     <t>Model</t>
   </si>
   <si>
+    <t xml:space="preserve">Top-k Accuracy (%) </t>
+  </si>
+  <si>
+    <t>MRR</t>
+  </si>
+  <si>
+    <t>MAP</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -49,41 +77,47 @@
     <t>15</t>
   </si>
   <si>
-    <t>MRR</t>
-  </si>
-  <si>
-    <t>MAP</t>
-  </si>
-  <si>
     <t>AspectJ</t>
   </si>
   <si>
+    <t>SOTA</t>
+  </si>
+  <si>
+    <t>Chạy 3 fold</t>
+  </si>
+  <si>
+    <t>Kq chay lai</t>
+  </si>
+  <si>
     <t>New Model</t>
   </si>
   <si>
-    <t>SOTA</t>
-  </si>
-  <si>
     <t>Birt</t>
   </si>
   <si>
+    <t>Chạy 10 fold</t>
+  </si>
+  <si>
+    <t>SWT</t>
+  </si>
+  <si>
+    <t>Tomcat</t>
+  </si>
+  <si>
     <t>Eclipse</t>
   </si>
   <si>
-    <t>SWT</t>
-  </si>
-  <si>
-    <t>Tomcat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Top-k Accuracy (%) </t>
+    <t>0.3467</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +140,13 @@
       <scheme val="major"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,16 +154,29 @@
       <family val="1"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -145,28 +199,117 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -184,6 +327,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -471,420 +618,560 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="11">
+        <v>52.5</v>
+      </c>
+      <c r="D3" s="11">
+        <v>68.7</v>
+      </c>
+      <c r="E3" s="11">
+        <v>77.2</v>
+      </c>
+      <c r="F3" s="11">
+        <v>81</v>
+      </c>
+      <c r="G3" s="11">
+        <v>83.8</v>
+      </c>
+      <c r="H3" s="11">
+        <v>89</v>
+      </c>
+      <c r="I3" s="11">
+        <v>91.5</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0.66</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="23"/>
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="11">
+        <v>25.92</v>
+      </c>
+      <c r="D4" s="11">
+        <v>32.479999999999997</v>
+      </c>
+      <c r="E4" s="11">
+        <v>44.76</v>
+      </c>
+      <c r="F4" s="11">
+        <v>50.05</v>
+      </c>
+      <c r="G4" s="11">
+        <v>63.32</v>
+      </c>
+      <c r="H4" s="11">
+        <v>66.14</v>
+      </c>
+      <c r="I4" s="11">
+        <v>71.19</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.40516000000000002</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="16"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" s="23"/>
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="12">
+        <v>23.51</v>
+      </c>
+      <c r="D5" s="12">
+        <v>33.340000000000003</v>
+      </c>
+      <c r="E5" s="12">
+        <v>41.88</v>
+      </c>
+      <c r="F5" s="12">
+        <v>52.23</v>
+      </c>
+      <c r="G5" s="12">
+        <v>59.12</v>
+      </c>
+      <c r="H5" s="12">
+        <v>61.24</v>
+      </c>
+      <c r="I5" s="12">
+        <v>66.3</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0.38119999999999998</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L5" s="17"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="6">
-        <v>61.9</v>
-      </c>
-      <c r="D3" s="6">
-        <v>71.13</v>
-      </c>
-      <c r="E3" s="5">
-        <v>76.19</v>
-      </c>
-      <c r="F3" s="5">
-        <v>80.06</v>
-      </c>
-      <c r="G3" s="5">
-        <v>82.74</v>
-      </c>
-      <c r="H3" s="5">
-        <v>88.39</v>
-      </c>
-      <c r="I3" s="5">
-        <v>91.07</v>
-      </c>
-      <c r="J3" s="6">
-        <v>0.71089999999999998</v>
-      </c>
-      <c r="K3" s="6">
-        <v>0.53669999999999995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="5">
-        <v>52.5</v>
-      </c>
-      <c r="D4" s="5">
-        <v>68.7</v>
-      </c>
-      <c r="E4" s="6">
-        <v>77.2</v>
-      </c>
-      <c r="F4" s="6">
-        <v>81</v>
-      </c>
-      <c r="G4" s="6">
-        <v>83.8</v>
-      </c>
-      <c r="H4" s="6">
-        <v>89</v>
-      </c>
-      <c r="I4" s="6">
-        <v>91.5</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="K4" s="5">
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="13">
+        <v>28.3</v>
+      </c>
+      <c r="D6" s="13">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="E6" s="13">
+        <v>45.7</v>
+      </c>
+      <c r="F6" s="13">
+        <v>51</v>
+      </c>
+      <c r="G6" s="13">
+        <v>53.6</v>
+      </c>
+      <c r="H6" s="13">
+        <v>63.2</v>
+      </c>
+      <c r="I6" s="13">
+        <v>69.2</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7" s="24"/>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="19"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8" s="24"/>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="19"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="11">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="D9" s="11">
+        <v>54.9</v>
+      </c>
+      <c r="E9" s="11">
+        <v>64.2</v>
+      </c>
+      <c r="F9" s="11">
+        <v>69.3</v>
+      </c>
+      <c r="G9" s="11">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="H9" s="11">
+        <v>84.8</v>
+      </c>
+      <c r="I9" s="11">
+        <v>89.1</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K9" s="7">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="L9" s="19"/>
+    </row>
+    <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="23"/>
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="19"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" s="23"/>
+      <c r="B11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="12">
+        <v>25.1</v>
+      </c>
+      <c r="D11" s="12">
+        <v>29.5</v>
+      </c>
+      <c r="E11" s="12">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="F11" s="12">
+        <v>47.8</v>
+      </c>
+      <c r="G11" s="12">
+        <v>55.1</v>
+      </c>
+      <c r="H11" s="12">
+        <v>58.5</v>
+      </c>
+      <c r="I11" s="12">
+        <v>63.2</v>
+      </c>
+      <c r="J11" s="10">
+        <v>0.40129999999999999</v>
+      </c>
+      <c r="K11" s="10">
+        <v>0.32940000000000003</v>
+      </c>
+      <c r="L11" s="19"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="6">
-        <v>45.97</v>
-      </c>
-      <c r="D5" s="6">
-        <v>59.04</v>
-      </c>
-      <c r="E5" s="6">
-        <v>66.599999999999994</v>
-      </c>
-      <c r="F5" s="6">
-        <v>71.739999999999995</v>
-      </c>
-      <c r="G5" s="6">
-        <v>75.62</v>
-      </c>
-      <c r="H5" s="6">
-        <v>85.76</v>
-      </c>
-      <c r="I5" s="6">
-        <v>90.5</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0.59209999999999996</v>
-      </c>
-      <c r="K5" s="6">
-        <v>0.37340000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="5">
-        <v>28.3</v>
-      </c>
-      <c r="D6" s="5">
-        <v>39.299999999999997</v>
-      </c>
-      <c r="E6" s="5">
-        <v>45.7</v>
-      </c>
-      <c r="F6" s="5">
-        <v>51</v>
-      </c>
-      <c r="G6" s="5">
-        <v>53.6</v>
-      </c>
-      <c r="H6" s="5">
-        <v>63.2</v>
-      </c>
-      <c r="I6" s="5">
-        <v>69.2</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="6">
-        <v>66.3</v>
-      </c>
-      <c r="D7" s="6">
-        <v>78.2</v>
-      </c>
-      <c r="E7" s="6">
-        <v>83.35</v>
-      </c>
-      <c r="F7" s="6">
-        <v>86.71</v>
-      </c>
-      <c r="G7" s="6">
-        <v>89.13</v>
-      </c>
-      <c r="H7" s="6">
-        <v>94.38</v>
-      </c>
-      <c r="I7" s="6">
-        <v>96.19</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0.76439999999999997</v>
-      </c>
-      <c r="K7" s="6">
-        <v>0.56920000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="C12" s="13">
+        <v>53.2</v>
+      </c>
+      <c r="D12" s="13">
+        <v>65.5</v>
+      </c>
+      <c r="E12" s="13">
+        <v>71</v>
+      </c>
+      <c r="F12" s="13">
+        <v>75</v>
+      </c>
+      <c r="G12" s="13">
+        <v>78.3</v>
+      </c>
+      <c r="H12" s="13">
+        <v>85.6</v>
+      </c>
+      <c r="I12" s="13">
+        <v>88.9</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0.64</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="L12" s="19"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" s="24"/>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="13">
+        <v>47.72</v>
+      </c>
+      <c r="D13" s="13">
+        <v>59.67</v>
+      </c>
+      <c r="E13" s="13">
+        <v>66.459999999999994</v>
+      </c>
+      <c r="F13" s="13">
+        <v>71.760000000000005</v>
+      </c>
+      <c r="G13" s="13">
+        <v>75.569999999999993</v>
+      </c>
+      <c r="H13" s="13">
+        <v>85.66</v>
+      </c>
+      <c r="I13" s="13">
+        <v>90.26</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0.59919999999999995</v>
+      </c>
+      <c r="K13" s="8">
+        <v>0.377</v>
+      </c>
+      <c r="L13" s="19"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14" s="24"/>
+      <c r="B14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="14">
+        <v>33.25</v>
+      </c>
+      <c r="D14" s="14">
+        <v>44.6</v>
+      </c>
+      <c r="E14" s="14">
+        <v>57.8</v>
+      </c>
+      <c r="F14" s="14">
+        <v>60.4</v>
+      </c>
+      <c r="G14" s="14">
+        <v>62.77</v>
+      </c>
+      <c r="H14" s="14">
+        <v>72.55</v>
+      </c>
+      <c r="I14" s="14">
+        <v>76.3</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0.57774000000000003</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0.45240000000000002</v>
+      </c>
+      <c r="L14" s="19"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="11">
         <v>48.1</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D15" s="11">
         <v>62.1</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E15" s="11">
         <v>68.8</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F15" s="11">
         <v>73</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G15" s="11">
         <v>76.7</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H15" s="11">
         <v>84.7</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I15" s="11">
         <v>87.8</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J15" s="7">
         <v>0.6</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K15" s="7">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="L15" s="19"/>
+    </row>
+    <row r="16" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="23"/>
+      <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="6">
-        <v>60.63</v>
-      </c>
-      <c r="D9" s="6">
-        <v>74.7</v>
-      </c>
-      <c r="E9" s="6">
-        <v>81.28</v>
-      </c>
-      <c r="F9" s="6">
-        <v>84.77</v>
-      </c>
-      <c r="G9" s="6">
-        <v>87.49</v>
-      </c>
-      <c r="H9" s="6">
-        <v>93.91</v>
-      </c>
-      <c r="I9" s="6">
-        <v>96.07</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0.71830000000000005</v>
-      </c>
-      <c r="K9" s="5">
-        <v>0.46689999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="5">
-        <v>40.200000000000003</v>
-      </c>
-      <c r="D10" s="5">
-        <v>54.9</v>
-      </c>
-      <c r="E10" s="5">
-        <v>64.2</v>
-      </c>
-      <c r="F10" s="5">
-        <v>69.3</v>
-      </c>
-      <c r="G10" s="5">
-        <v>73.400000000000006</v>
-      </c>
-      <c r="H10" s="5">
-        <v>84.8</v>
-      </c>
-      <c r="I10" s="5">
-        <v>89.1</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="K10" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="C16" s="11">
+        <v>31.3</v>
+      </c>
+      <c r="D16" s="11">
+        <v>46.5</v>
+      </c>
+      <c r="E16" s="11">
+        <v>51.7</v>
+      </c>
+      <c r="F16" s="11">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="G16" s="11">
+        <v>68.2</v>
+      </c>
+      <c r="H16" s="11">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="I16" s="11">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0.49919999999999998</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0.42570000000000002</v>
+      </c>
+      <c r="L16" s="19"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" s="23"/>
+      <c r="B17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="6">
-        <v>56.75</v>
-      </c>
-      <c r="D11" s="6">
-        <v>69.58</v>
-      </c>
-      <c r="E11" s="6">
-        <v>77.48</v>
-      </c>
-      <c r="F11" s="6">
-        <v>82.71</v>
-      </c>
-      <c r="G11" s="6">
-        <v>85.79</v>
-      </c>
-      <c r="H11" s="6">
-        <v>92.9</v>
-      </c>
-      <c r="I11" s="6">
-        <v>94.9</v>
-      </c>
-      <c r="J11" s="6">
-        <v>0.68989999999999996</v>
-      </c>
-      <c r="K11" s="5">
-        <v>0.49459999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="5">
-        <v>53.2</v>
-      </c>
-      <c r="D12" s="5">
-        <v>65.5</v>
-      </c>
-      <c r="E12" s="5">
-        <v>71</v>
-      </c>
-      <c r="F12" s="5">
-        <v>75</v>
-      </c>
-      <c r="G12" s="5">
-        <v>78.3</v>
-      </c>
-      <c r="H12" s="5">
-        <v>85.6</v>
-      </c>
-      <c r="I12" s="5">
-        <v>88.9</v>
-      </c>
-      <c r="J12" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="K12" s="6">
-        <v>0.59</v>
-      </c>
+      <c r="C17" s="12">
+        <v>28.7</v>
+      </c>
+      <c r="D17" s="12">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="E17" s="12">
+        <v>43.5</v>
+      </c>
+      <c r="F17" s="12">
+        <v>54.8</v>
+      </c>
+      <c r="G17" s="12">
+        <v>59.3</v>
+      </c>
+      <c r="H17" s="12">
+        <v>62.2</v>
+      </c>
+      <c r="I17" s="12">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="J17" s="10">
+        <v>0.4733</v>
+      </c>
+      <c r="K17" s="10">
+        <v>0.3992</v>
+      </c>
+      <c r="L17" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
+  <mergeCells count="13">
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="L6:L17"/>
+    <mergeCell ref="L1:L2"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>